--- a/data/2024/fid/FID-ALT-DE-12.xlsx
+++ b/data/2024/fid/FID-ALT-DE-12.xlsx
@@ -133,10 +133,10 @@
     <t>x</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-8;DE-16;DE-19;DE-24;DE-25;DE-F42;DE-31;DE-34-24;DE-61;DE-Ful2;DE-361;DE-Tr2;DE-824;DE-Kn28</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-8;DE-16;DE-19;DE-23;DE-24;DE-25;DE-F42;DE-31;DE-34-24;DE-61;DE-Ful2;DE-361;DE-Tr2;DE-824;DE-Kn28</t>
   </si>
   <si>
     <t>1831-4</t>
@@ -169,10 +169,7 @@
     <t>1.1960 -</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-8;DE-14;DE-15;DE-16;DE-18;DE-21;DE-32;DE-38;DE-61;DE-291;DE-385;DE-465;DE-F36</t>
+    <t>DE-1a;DE-7;DE-8;DE-14;DE-15;DE-16;DE-18;DE-21;DE-32;DE-36;DE-38;DE-61;DE-291;DE-385;DE-465;DE-F36</t>
   </si>
   <si>
     <t>1106645-3</t>
@@ -469,6 +466,9 @@
     <t>1.1962 - 29.1990,1/2 ; Series nova, 1 (2019)-</t>
   </si>
   <si>
+    <t>DE-1a;DE-16;DE-19</t>
+  </si>
+  <si>
     <t>1070036-5</t>
   </si>
   <si>
@@ -841,10 +841,10 @@
     <t>40.1997 -</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-4;DE-16;DE-19;DE-20;DE-29;DE-31;DE-34-30;DE-861;DE-352;DE-22</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-4;DE-16;DE-19;DE-20;DE-29;DE-31;DE-34-30;DE-861;DE-352;DE-22;DE-700;DE-824</t>
   </si>
   <si>
     <t>2090610-9</t>
@@ -3655,9 +3655,6 @@
     <t>https://www.nomos-elibrary.de/zeitschrift/2625-9842;http://www.bibliothek.uni-regensburg.de/ezeit/?3015135</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>DE-4;DE-8;DE-18;DE-21;DE-24;DE-180;DE-473;DE-705;DE-824;DE-929;DE-Ma9;DE-Ma14;DE-Re13</t>
   </si>
   <si>
@@ -3676,6 +3673,9 @@
     <t>1.2015 -</t>
   </si>
   <si>
+    <t>DE-1a;DE-700</t>
+  </si>
+  <si>
     <t>3020328-4</t>
   </si>
   <si>
@@ -3787,7 +3787,7 @@
     <t>2724-2145</t>
   </si>
   <si>
-    <t>DE-355</t>
+    <t>DE-16;DE-355</t>
   </si>
   <si>
     <t>3044683-1</t>
@@ -4434,15 +4434,15 @@
         <v>32</v>
       </c>
       <c r="X3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" t="s">
         <v>51</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -4451,49 +4451,49 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>56</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
         <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
       </c>
       <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
         <v>59</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" t="s">
-        <v>60</v>
       </c>
       <c r="S4" t="s">
         <v>32</v>
@@ -4511,15 +4511,15 @@
         <v>32</v>
       </c>
       <c r="X4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y4" t="s">
         <v>61</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -4528,49 +4528,49 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
         <v>64</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>65</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
         <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>67</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
       </c>
       <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
         <v>68</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" t="s">
-        <v>69</v>
       </c>
       <c r="S5" t="s">
         <v>32</v>
@@ -4588,15 +4588,15 @@
         <v>32</v>
       </c>
       <c r="X5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" t="s">
         <v>70</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -4605,49 +4605,49 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
         <v>73</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
         <v>77</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" t="s">
-        <v>78</v>
       </c>
       <c r="S6" t="s">
         <v>32</v>
@@ -4665,7 +4665,7 @@
         <v>38</v>
       </c>
       <c r="X6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s">
         <v>32</v>
@@ -4673,7 +4673,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -4682,75 +4682,75 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
         <v>81</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>82</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
         <v>84</v>
       </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" t="s">
         <v>86</v>
       </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" t="s">
         <v>87</v>
       </c>
-      <c r="S7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" t="s">
-        <v>32</v>
-      </c>
-      <c r="V7" t="s">
-        <v>32</v>
-      </c>
-      <c r="W7" t="s">
-        <v>32</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>88</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -4759,13 +4759,13 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
         <v>91</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>92</v>
-      </c>
-      <c r="F8" t="s">
-        <v>93</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -4774,34 +4774,34 @@
         <v>32</v>
       </c>
       <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
         <v>96</v>
       </c>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>97</v>
-      </c>
-      <c r="R8" t="s">
-        <v>98</v>
       </c>
       <c r="S8" t="s">
         <v>32</v>
@@ -4819,66 +4819,66 @@
         <v>32</v>
       </c>
       <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
         <v>99</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
         <v>102</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>103</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>104</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>105</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
         <v>106</v>
       </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>107</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
         <v>108</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" t="s">
-        <v>109</v>
       </c>
       <c r="S9" t="s">
         <v>32</v>
@@ -4896,15 +4896,15 @@
         <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -4913,49 +4913,49 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
         <v>112</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>113</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>114</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
         <v>115</v>
       </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="s">
         <v>116</v>
-      </c>
-      <c r="J10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" t="s">
-        <v>117</v>
       </c>
       <c r="S10" t="s">
         <v>32</v>
@@ -4973,66 +4973,66 @@
         <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
         <v>120</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>121</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
         <v>122</v>
       </c>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
         <v>123</v>
       </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>124</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>125</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" t="s">
         <v>126</v>
-      </c>
-      <c r="L11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" t="s">
-        <v>127</v>
       </c>
       <c r="S11" t="s">
         <v>32</v>
@@ -5050,15 +5050,15 @@
         <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -5067,50 +5067,50 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
         <v>130</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>131</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
         <v>132</v>
       </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>133</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="s">
         <v>134</v>
       </c>
-      <c r="K12" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" t="s">
-        <v>135</v>
-      </c>
       <c r="S12" t="s">
         <v>32</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>32</v>
       </c>
       <c r="X12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s">
         <v>32</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -5144,49 +5144,49 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" t="s">
         <v>137</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>138</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
         <v>139</v>
       </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>140</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" t="s">
         <v>141</v>
-      </c>
-      <c r="L13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" t="s">
-        <v>142</v>
       </c>
       <c r="S13" t="s">
         <v>32</v>
@@ -5204,7 +5204,7 @@
         <v>38</v>
       </c>
       <c r="X13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s">
         <v>32</v>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -5221,49 +5221,49 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" t="s">
         <v>144</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>145</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
         <v>146</v>
       </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>147</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>148</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" t="s">
         <v>149</v>
-      </c>
-      <c r="L14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" t="s">
-        <v>150</v>
       </c>
       <c r="S14" t="s">
         <v>32</v>
@@ -5281,10 +5281,10 @@
         <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="Y14" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -5358,7 +5358,7 @@
         <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y15" t="s">
         <v>158</v>
@@ -5393,7 +5393,7 @@
         <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
         <v>166</v>
@@ -5435,10 +5435,10 @@
         <v>32</v>
       </c>
       <c r="X16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y16" t="s">
         <v>70</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -5461,7 +5461,7 @@
         <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
         <v>32</v>
@@ -5470,7 +5470,7 @@
         <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s">
         <v>175</v>
@@ -5547,7 +5547,7 @@
         <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s">
         <v>156</v>
@@ -5589,7 +5589,7 @@
         <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y18" t="s">
         <v>189</v>
@@ -5615,7 +5615,7 @@
         <v>193</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
@@ -5624,7 +5624,7 @@
         <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s">
         <v>195</v>
@@ -5666,7 +5666,7 @@
         <v>38</v>
       </c>
       <c r="X19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s">
         <v>32</v>
@@ -5769,7 +5769,7 @@
         <v>212</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
@@ -5778,7 +5778,7 @@
         <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K21" t="s">
         <v>213</v>
@@ -5820,7 +5820,7 @@
         <v>38</v>
       </c>
       <c r="X21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s">
         <v>32</v>
@@ -5855,7 +5855,7 @@
         <v>32</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s">
         <v>220</v>
@@ -5923,7 +5923,7 @@
         <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
@@ -5935,7 +5935,7 @@
         <v>230</v>
       </c>
       <c r="K23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L23" t="s">
         <v>32</v>
@@ -6000,7 +6000,7 @@
         <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s">
         <v>32</v>
@@ -6012,7 +6012,7 @@
         <v>241</v>
       </c>
       <c r="K24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L24" t="s">
         <v>32</v>
@@ -6077,7 +6077,7 @@
         <v>248</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s">
         <v>32</v>
@@ -6154,7 +6154,7 @@
         <v>260</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
         <v>32</v>
@@ -6163,10 +6163,10 @@
         <v>32</v>
       </c>
       <c r="J26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" t="s">
         <v>76</v>
-      </c>
-      <c r="K26" t="s">
-        <v>77</v>
       </c>
       <c r="L26" t="s">
         <v>32</v>
@@ -6205,7 +6205,7 @@
         <v>32</v>
       </c>
       <c r="X26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s">
         <v>32</v>
@@ -6228,10 +6228,10 @@
         <v>265</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H27" t="s">
         <v>32</v>
@@ -6243,7 +6243,7 @@
         <v>266</v>
       </c>
       <c r="K27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L27" t="s">
         <v>32</v>
@@ -6282,7 +6282,7 @@
         <v>32</v>
       </c>
       <c r="X27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s">
         <v>32</v>
@@ -6320,7 +6320,7 @@
         <v>48</v>
       </c>
       <c r="K28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L28" t="s">
         <v>32</v>
@@ -6385,7 +6385,7 @@
         <v>280</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
         <v>32</v>
@@ -6397,7 +6397,7 @@
         <v>282</v>
       </c>
       <c r="K29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L29" t="s">
         <v>32</v>
@@ -6462,7 +6462,7 @@
         <v>289</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s">
         <v>32</v>
@@ -6471,7 +6471,7 @@
         <v>290</v>
       </c>
       <c r="J30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K30" t="s">
         <v>291</v>
@@ -6539,7 +6539,7 @@
         <v>299</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H31" t="s">
         <v>32</v>
@@ -6548,7 +6548,7 @@
         <v>300</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s">
         <v>301</v>
@@ -6590,7 +6590,7 @@
         <v>38</v>
       </c>
       <c r="X31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s">
         <v>32</v>
@@ -6625,10 +6625,10 @@
         <v>308</v>
       </c>
       <c r="J32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" t="s">
         <v>76</v>
-      </c>
-      <c r="K32" t="s">
-        <v>77</v>
       </c>
       <c r="L32" t="s">
         <v>32</v>
@@ -6693,7 +6693,7 @@
         <v>317</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
         <v>32</v>
@@ -6702,10 +6702,10 @@
         <v>318</v>
       </c>
       <c r="J33" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33" t="s">
         <v>76</v>
-      </c>
-      <c r="K33" t="s">
-        <v>77</v>
       </c>
       <c r="L33" t="s">
         <v>32</v>
@@ -6779,7 +6779,7 @@
         <v>32</v>
       </c>
       <c r="J34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s">
         <v>328</v>
@@ -6821,7 +6821,7 @@
         <v>32</v>
       </c>
       <c r="X34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s">
         <v>32</v>
@@ -6856,10 +6856,10 @@
         <v>32</v>
       </c>
       <c r="J35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L35" t="s">
         <v>32</v>
@@ -6933,10 +6933,10 @@
         <v>344</v>
       </c>
       <c r="J36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" t="s">
         <v>76</v>
-      </c>
-      <c r="K36" t="s">
-        <v>77</v>
       </c>
       <c r="L36" t="s">
         <v>345</v>
@@ -6975,7 +6975,7 @@
         <v>38</v>
       </c>
       <c r="X36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s">
         <v>32</v>
@@ -7013,7 +7013,7 @@
         <v>351</v>
       </c>
       <c r="K37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L37" t="s">
         <v>32</v>
@@ -7309,7 +7309,7 @@
         <v>387</v>
       </c>
       <c r="G41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H41" t="s">
         <v>32</v>
@@ -7360,7 +7360,7 @@
         <v>32</v>
       </c>
       <c r="X41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y41" t="s">
         <v>393</v>
@@ -7386,7 +7386,7 @@
         <v>397</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s">
         <v>32</v>
@@ -7463,7 +7463,7 @@
         <v>407</v>
       </c>
       <c r="G43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H43" t="s">
         <v>32</v>
@@ -7472,7 +7472,7 @@
         <v>408</v>
       </c>
       <c r="J43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s">
         <v>409</v>
@@ -7514,7 +7514,7 @@
         <v>38</v>
       </c>
       <c r="X43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s">
         <v>32</v>
@@ -7540,7 +7540,7 @@
         <v>212</v>
       </c>
       <c r="G44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H44" t="s">
         <v>32</v>
@@ -7549,10 +7549,10 @@
         <v>413</v>
       </c>
       <c r="J44" t="s">
+        <v>75</v>
+      </c>
+      <c r="K44" t="s">
         <v>76</v>
-      </c>
-      <c r="K44" t="s">
-        <v>77</v>
       </c>
       <c r="L44" t="s">
         <v>32</v>
@@ -7591,7 +7591,7 @@
         <v>38</v>
       </c>
       <c r="X44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s">
         <v>32</v>
@@ -7626,7 +7626,7 @@
         <v>420</v>
       </c>
       <c r="J45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s">
         <v>421</v>
@@ -7668,7 +7668,7 @@
         <v>32</v>
       </c>
       <c r="X45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y45" t="s">
         <v>424</v>
@@ -7688,7 +7688,7 @@
         <v>426</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F46" t="s">
         <v>427</v>
@@ -7706,7 +7706,7 @@
         <v>429</v>
       </c>
       <c r="K46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L46" t="s">
         <v>32</v>
@@ -7745,7 +7745,7 @@
         <v>38</v>
       </c>
       <c r="X46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s">
         <v>32</v>
@@ -7771,7 +7771,7 @@
         <v>434</v>
       </c>
       <c r="G47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s">
         <v>32</v>
@@ -7848,7 +7848,7 @@
         <v>442</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s">
         <v>32</v>
@@ -7925,7 +7925,7 @@
         <v>453</v>
       </c>
       <c r="G49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H49" t="s">
         <v>32</v>
@@ -7937,7 +7937,7 @@
         <v>455</v>
       </c>
       <c r="K49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L49" t="s">
         <v>32</v>
@@ -7976,10 +7976,10 @@
         <v>32</v>
       </c>
       <c r="X49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -8002,7 +8002,7 @@
         <v>460</v>
       </c>
       <c r="G50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s">
         <v>32</v>
@@ -8014,7 +8014,7 @@
         <v>399</v>
       </c>
       <c r="K50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L50" t="s">
         <v>32</v>
@@ -8053,7 +8053,7 @@
         <v>32</v>
       </c>
       <c r="X50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s">
         <v>32</v>
@@ -8079,7 +8079,7 @@
         <v>466</v>
       </c>
       <c r="G51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s">
         <v>32</v>
@@ -8088,10 +8088,10 @@
         <v>467</v>
       </c>
       <c r="J51" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51" t="s">
         <v>76</v>
-      </c>
-      <c r="K51" t="s">
-        <v>77</v>
       </c>
       <c r="L51" t="s">
         <v>32</v>
@@ -8130,7 +8130,7 @@
         <v>32</v>
       </c>
       <c r="X51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s">
         <v>32</v>
@@ -8156,7 +8156,7 @@
         <v>460</v>
       </c>
       <c r="G52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s">
         <v>32</v>
@@ -8207,7 +8207,7 @@
         <v>32</v>
       </c>
       <c r="X52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s">
         <v>32</v>
@@ -8245,7 +8245,7 @@
         <v>485</v>
       </c>
       <c r="K53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L53" t="s">
         <v>32</v>
@@ -8310,7 +8310,7 @@
         <v>494</v>
       </c>
       <c r="G54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H54" t="s">
         <v>32</v>
@@ -8319,10 +8319,10 @@
         <v>495</v>
       </c>
       <c r="J54" t="s">
+        <v>75</v>
+      </c>
+      <c r="K54" t="s">
         <v>76</v>
-      </c>
-      <c r="K54" t="s">
-        <v>77</v>
       </c>
       <c r="L54" t="s">
         <v>32</v>
@@ -8361,7 +8361,7 @@
         <v>32</v>
       </c>
       <c r="X54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y54" t="s">
         <v>189</v>
@@ -8396,7 +8396,7 @@
         <v>502</v>
       </c>
       <c r="J55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K55" t="s">
         <v>503</v>
@@ -8476,7 +8476,7 @@
         <v>48</v>
       </c>
       <c r="K56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L56" t="s">
         <v>32</v>
@@ -8515,7 +8515,7 @@
         <v>32</v>
       </c>
       <c r="X56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s">
         <v>32</v>
@@ -8550,7 +8550,7 @@
         <v>517</v>
       </c>
       <c r="J57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s">
         <v>518</v>
@@ -8618,7 +8618,7 @@
         <v>526</v>
       </c>
       <c r="G58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H58" t="s">
         <v>32</v>
@@ -8695,7 +8695,7 @@
         <v>537</v>
       </c>
       <c r="G59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H59" t="s">
         <v>32</v>
@@ -8746,7 +8746,7 @@
         <v>32</v>
       </c>
       <c r="X59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y59" t="s">
         <v>189</v>
@@ -8772,7 +8772,7 @@
         <v>545</v>
       </c>
       <c r="G60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H60" t="s">
         <v>32</v>
@@ -8781,10 +8781,10 @@
         <v>546</v>
       </c>
       <c r="J60" t="s">
+        <v>75</v>
+      </c>
+      <c r="K60" t="s">
         <v>76</v>
-      </c>
-      <c r="K60" t="s">
-        <v>77</v>
       </c>
       <c r="L60" t="s">
         <v>32</v>
@@ -8858,10 +8858,10 @@
         <v>32</v>
       </c>
       <c r="J61" t="s">
+        <v>75</v>
+      </c>
+      <c r="K61" t="s">
         <v>76</v>
-      </c>
-      <c r="K61" t="s">
-        <v>77</v>
       </c>
       <c r="L61" t="s">
         <v>555</v>
@@ -8900,7 +8900,7 @@
         <v>32</v>
       </c>
       <c r="X61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s">
         <v>32</v>
@@ -8935,7 +8935,7 @@
         <v>32</v>
       </c>
       <c r="J62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K62" t="s">
         <v>563</v>
@@ -8977,7 +8977,7 @@
         <v>32</v>
       </c>
       <c r="X62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y62" t="s">
         <v>189</v>
@@ -9012,7 +9012,7 @@
         <v>569</v>
       </c>
       <c r="J63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K63" t="s">
         <v>570</v>
@@ -9077,10 +9077,10 @@
         <v>577</v>
       </c>
       <c r="F64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H64" t="s">
         <v>32</v>
@@ -9089,7 +9089,7 @@
         <v>578</v>
       </c>
       <c r="J64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K64" t="s">
         <v>563</v>
@@ -9157,7 +9157,7 @@
         <v>585</v>
       </c>
       <c r="G65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H65" t="s">
         <v>32</v>
@@ -9166,7 +9166,7 @@
         <v>32</v>
       </c>
       <c r="J65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K65" t="s">
         <v>369</v>
@@ -9243,10 +9243,10 @@
         <v>32</v>
       </c>
       <c r="J66" t="s">
+        <v>75</v>
+      </c>
+      <c r="K66" t="s">
         <v>76</v>
-      </c>
-      <c r="K66" t="s">
-        <v>77</v>
       </c>
       <c r="L66" t="s">
         <v>32</v>
@@ -9285,7 +9285,7 @@
         <v>38</v>
       </c>
       <c r="X66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y66" t="s">
         <v>32</v>
@@ -9311,7 +9311,7 @@
         <v>597</v>
       </c>
       <c r="G67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H67" t="s">
         <v>32</v>
@@ -9320,10 +9320,10 @@
         <v>598</v>
       </c>
       <c r="J67" t="s">
+        <v>75</v>
+      </c>
+      <c r="K67" t="s">
         <v>76</v>
-      </c>
-      <c r="K67" t="s">
-        <v>77</v>
       </c>
       <c r="L67" t="s">
         <v>32</v>
@@ -9362,7 +9362,7 @@
         <v>32</v>
       </c>
       <c r="X67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y67" t="s">
         <v>32</v>
@@ -9400,7 +9400,7 @@
         <v>604</v>
       </c>
       <c r="K68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L68" t="s">
         <v>32</v>
@@ -9439,7 +9439,7 @@
         <v>32</v>
       </c>
       <c r="X68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y68" t="s">
         <v>606</v>
@@ -9465,7 +9465,7 @@
         <v>610</v>
       </c>
       <c r="G69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s">
         <v>32</v>
@@ -9474,7 +9474,7 @@
         <v>611</v>
       </c>
       <c r="J69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K69" t="s">
         <v>612</v>
@@ -9542,7 +9542,7 @@
         <v>460</v>
       </c>
       <c r="G70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H70" t="s">
         <v>32</v>
@@ -9554,7 +9554,7 @@
         <v>399</v>
       </c>
       <c r="K70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L70" t="s">
         <v>32</v>
@@ -9593,7 +9593,7 @@
         <v>32</v>
       </c>
       <c r="X70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y70" t="s">
         <v>32</v>
@@ -9631,7 +9631,7 @@
         <v>625</v>
       </c>
       <c r="K71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L71" t="s">
         <v>32</v>
@@ -9670,7 +9670,7 @@
         <v>38</v>
       </c>
       <c r="X71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y71" t="s">
         <v>32</v>
@@ -9705,10 +9705,10 @@
         <v>631</v>
       </c>
       <c r="J72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L72" t="s">
         <v>632</v>
@@ -9747,7 +9747,7 @@
         <v>38</v>
       </c>
       <c r="X72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y72" t="s">
         <v>32</v>
@@ -9782,10 +9782,10 @@
         <v>636</v>
       </c>
       <c r="J73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L73" t="s">
         <v>32</v>
@@ -9824,7 +9824,7 @@
         <v>38</v>
       </c>
       <c r="X73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y73" t="s">
         <v>32</v>
@@ -9859,10 +9859,10 @@
         <v>642</v>
       </c>
       <c r="J74" t="s">
+        <v>75</v>
+      </c>
+      <c r="K74" t="s">
         <v>76</v>
-      </c>
-      <c r="K74" t="s">
-        <v>77</v>
       </c>
       <c r="L74" t="s">
         <v>32</v>
@@ -9901,7 +9901,7 @@
         <v>38</v>
       </c>
       <c r="X74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y74" t="s">
         <v>32</v>
@@ -9927,7 +9927,7 @@
         <v>648</v>
       </c>
       <c r="G75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H75" t="s">
         <v>32</v>
@@ -9936,10 +9936,10 @@
         <v>649</v>
       </c>
       <c r="J75" t="s">
+        <v>75</v>
+      </c>
+      <c r="K75" t="s">
         <v>76</v>
-      </c>
-      <c r="K75" t="s">
-        <v>77</v>
       </c>
       <c r="L75" t="s">
         <v>32</v>
@@ -10013,10 +10013,10 @@
         <v>658</v>
       </c>
       <c r="J76" t="s">
+        <v>75</v>
+      </c>
+      <c r="K76" t="s">
         <v>76</v>
-      </c>
-      <c r="K76" t="s">
-        <v>77</v>
       </c>
       <c r="L76" t="s">
         <v>32</v>
@@ -10055,7 +10055,7 @@
         <v>32</v>
       </c>
       <c r="X76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y76" t="s">
         <v>32</v>
@@ -10078,7 +10078,7 @@
         <v>662</v>
       </c>
       <c r="F77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G77" t="s">
         <v>31</v>
@@ -10090,10 +10090,10 @@
         <v>663</v>
       </c>
       <c r="J77" t="s">
+        <v>75</v>
+      </c>
+      <c r="K77" t="s">
         <v>76</v>
-      </c>
-      <c r="K77" t="s">
-        <v>77</v>
       </c>
       <c r="L77" t="s">
         <v>32</v>
@@ -10132,7 +10132,7 @@
         <v>32</v>
       </c>
       <c r="X77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y77" t="s">
         <v>32</v>
@@ -10158,7 +10158,7 @@
         <v>667</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H78" t="s">
         <v>32</v>
@@ -10170,7 +10170,7 @@
         <v>48</v>
       </c>
       <c r="K78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L78" t="s">
         <v>32</v>
@@ -10209,7 +10209,7 @@
         <v>32</v>
       </c>
       <c r="X78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y78" t="s">
         <v>32</v>
@@ -10229,13 +10229,13 @@
         <v>671</v>
       </c>
       <c r="E79" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F79" t="s">
         <v>672</v>
       </c>
       <c r="G79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H79" t="s">
         <v>32</v>
@@ -10247,7 +10247,7 @@
         <v>32</v>
       </c>
       <c r="K79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L79" t="s">
         <v>32</v>
@@ -10286,7 +10286,7 @@
         <v>38</v>
       </c>
       <c r="X79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y79" t="s">
         <v>32</v>
@@ -10309,10 +10309,10 @@
         <v>676</v>
       </c>
       <c r="F80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H80" t="s">
         <v>32</v>
@@ -10321,10 +10321,10 @@
         <v>677</v>
       </c>
       <c r="J80" t="s">
+        <v>75</v>
+      </c>
+      <c r="K80" t="s">
         <v>76</v>
-      </c>
-      <c r="K80" t="s">
-        <v>77</v>
       </c>
       <c r="L80" t="s">
         <v>32</v>
@@ -10363,7 +10363,7 @@
         <v>32</v>
       </c>
       <c r="X80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y80" t="s">
         <v>679</v>
@@ -10389,7 +10389,7 @@
         <v>683</v>
       </c>
       <c r="G81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H81" t="s">
         <v>32</v>
@@ -10401,7 +10401,7 @@
         <v>48</v>
       </c>
       <c r="K81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L81" t="s">
         <v>32</v>
@@ -10460,7 +10460,7 @@
         <v>690</v>
       </c>
       <c r="E82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F82" t="s">
         <v>30</v>
@@ -10475,7 +10475,7 @@
         <v>691</v>
       </c>
       <c r="J82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K82" t="s">
         <v>529</v>
@@ -10517,7 +10517,7 @@
         <v>32</v>
       </c>
       <c r="X82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y82" t="s">
         <v>32</v>
@@ -10543,7 +10543,7 @@
         <v>696</v>
       </c>
       <c r="G83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H83" t="s">
         <v>32</v>
@@ -10552,7 +10552,7 @@
         <v>697</v>
       </c>
       <c r="J83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K83" t="s">
         <v>698</v>
@@ -10594,7 +10594,7 @@
         <v>32</v>
       </c>
       <c r="X83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y83" t="s">
         <v>32</v>
@@ -10620,7 +10620,7 @@
         <v>460</v>
       </c>
       <c r="G84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H84" t="s">
         <v>32</v>
@@ -10632,7 +10632,7 @@
         <v>399</v>
       </c>
       <c r="K84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L84" t="s">
         <v>32</v>
@@ -10671,7 +10671,7 @@
         <v>32</v>
       </c>
       <c r="X84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y84" t="s">
         <v>32</v>
@@ -10697,7 +10697,7 @@
         <v>705</v>
       </c>
       <c r="G85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H85" t="s">
         <v>32</v>
@@ -10709,7 +10709,7 @@
         <v>32</v>
       </c>
       <c r="K85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L85" t="s">
         <v>32</v>
@@ -10748,7 +10748,7 @@
         <v>32</v>
       </c>
       <c r="X85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y85" t="s">
         <v>32</v>
@@ -10783,10 +10783,10 @@
         <v>712</v>
       </c>
       <c r="J86" t="s">
+        <v>75</v>
+      </c>
+      <c r="K86" t="s">
         <v>76</v>
-      </c>
-      <c r="K86" t="s">
-        <v>77</v>
       </c>
       <c r="L86" t="s">
         <v>32</v>
@@ -10825,7 +10825,7 @@
         <v>38</v>
       </c>
       <c r="X86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y86" t="s">
         <v>32</v>
@@ -10902,7 +10902,7 @@
         <v>32</v>
       </c>
       <c r="X87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y87" t="s">
         <v>722</v>
@@ -10937,7 +10937,7 @@
         <v>32</v>
       </c>
       <c r="J88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K88" t="s">
         <v>727</v>
@@ -11005,7 +11005,7 @@
         <v>545</v>
       </c>
       <c r="G89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H89" t="s">
         <v>32</v>
@@ -11014,10 +11014,10 @@
         <v>732</v>
       </c>
       <c r="J89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L89" t="s">
         <v>32</v>
@@ -11056,7 +11056,7 @@
         <v>38</v>
       </c>
       <c r="X89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y89" t="s">
         <v>32</v>
@@ -11082,7 +11082,7 @@
         <v>736</v>
       </c>
       <c r="G90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H90" t="s">
         <v>32</v>
@@ -11094,7 +11094,7 @@
         <v>738</v>
       </c>
       <c r="K90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L90" t="s">
         <v>32</v>
@@ -11133,7 +11133,7 @@
         <v>32</v>
       </c>
       <c r="X90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y90" t="s">
         <v>189</v>
@@ -11168,10 +11168,10 @@
         <v>744</v>
       </c>
       <c r="J91" t="s">
+        <v>75</v>
+      </c>
+      <c r="K91" t="s">
         <v>76</v>
-      </c>
-      <c r="K91" t="s">
-        <v>77</v>
       </c>
       <c r="L91" t="s">
         <v>32</v>
@@ -11245,10 +11245,10 @@
         <v>753</v>
       </c>
       <c r="J92" t="s">
+        <v>75</v>
+      </c>
+      <c r="K92" t="s">
         <v>76</v>
-      </c>
-      <c r="K92" t="s">
-        <v>77</v>
       </c>
       <c r="L92" t="s">
         <v>32</v>
@@ -11287,7 +11287,7 @@
         <v>38</v>
       </c>
       <c r="X92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y92" t="s">
         <v>32</v>
@@ -11390,7 +11390,7 @@
         <v>545</v>
       </c>
       <c r="G94" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H94" t="s">
         <v>32</v>
@@ -11399,10 +11399,10 @@
         <v>32</v>
       </c>
       <c r="J94" t="s">
+        <v>75</v>
+      </c>
+      <c r="K94" t="s">
         <v>76</v>
-      </c>
-      <c r="K94" t="s">
-        <v>77</v>
       </c>
       <c r="L94" t="s">
         <v>767</v>
@@ -11441,7 +11441,7 @@
         <v>32</v>
       </c>
       <c r="X94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y94" t="s">
         <v>32</v>
@@ -11467,7 +11467,7 @@
         <v>772</v>
       </c>
       <c r="G95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H95" t="s">
         <v>32</v>
@@ -11518,7 +11518,7 @@
         <v>32</v>
       </c>
       <c r="X95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y95" t="s">
         <v>189</v>
@@ -11556,7 +11556,7 @@
         <v>738</v>
       </c>
       <c r="K96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L96" t="s">
         <v>32</v>
@@ -11595,7 +11595,7 @@
         <v>32</v>
       </c>
       <c r="X96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y96" t="s">
         <v>778</v>
@@ -11621,7 +11621,7 @@
         <v>585</v>
       </c>
       <c r="G97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H97" t="s">
         <v>32</v>
@@ -11630,10 +11630,10 @@
         <v>32</v>
       </c>
       <c r="J97" t="s">
+        <v>75</v>
+      </c>
+      <c r="K97" t="s">
         <v>76</v>
-      </c>
-      <c r="K97" t="s">
-        <v>77</v>
       </c>
       <c r="L97" t="s">
         <v>32</v>
@@ -11707,10 +11707,10 @@
         <v>32</v>
       </c>
       <c r="J98" t="s">
+        <v>75</v>
+      </c>
+      <c r="K98" t="s">
         <v>76</v>
-      </c>
-      <c r="K98" t="s">
-        <v>77</v>
       </c>
       <c r="L98" t="s">
         <v>32</v>
@@ -11852,7 +11852,7 @@
         <v>807</v>
       </c>
       <c r="G100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H100" t="s">
         <v>32</v>
@@ -11864,7 +11864,7 @@
         <v>809</v>
       </c>
       <c r="K100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L100" t="s">
         <v>32</v>
@@ -11903,7 +11903,7 @@
         <v>32</v>
       </c>
       <c r="X100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y100" t="s">
         <v>812</v>
@@ -11929,7 +11929,7 @@
         <v>816</v>
       </c>
       <c r="G101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H101" t="s">
         <v>32</v>
@@ -11938,10 +11938,10 @@
         <v>32</v>
       </c>
       <c r="J101" t="s">
+        <v>75</v>
+      </c>
+      <c r="K101" t="s">
         <v>76</v>
-      </c>
-      <c r="K101" t="s">
-        <v>77</v>
       </c>
       <c r="L101" t="s">
         <v>32</v>
@@ -11980,7 +11980,7 @@
         <v>32</v>
       </c>
       <c r="X101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y101" t="s">
         <v>32</v>
@@ -12006,7 +12006,7 @@
         <v>807</v>
       </c>
       <c r="G102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H102" t="s">
         <v>32</v>
@@ -12018,7 +12018,7 @@
         <v>809</v>
       </c>
       <c r="K102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L102" t="s">
         <v>32</v>
@@ -12057,7 +12057,7 @@
         <v>38</v>
       </c>
       <c r="X102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y102" t="s">
         <v>32</v>
@@ -12083,7 +12083,7 @@
         <v>823</v>
       </c>
       <c r="G103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H103" t="s">
         <v>32</v>
@@ -12237,7 +12237,7 @@
         <v>842</v>
       </c>
       <c r="G105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H105" t="s">
         <v>32</v>
@@ -12249,7 +12249,7 @@
         <v>843</v>
       </c>
       <c r="K105" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L105" t="s">
         <v>32</v>
@@ -12288,7 +12288,7 @@
         <v>38</v>
       </c>
       <c r="X105" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y105" t="s">
         <v>32</v>
@@ -12323,10 +12323,10 @@
         <v>848</v>
       </c>
       <c r="J106" t="s">
+        <v>75</v>
+      </c>
+      <c r="K106" t="s">
         <v>76</v>
-      </c>
-      <c r="K106" t="s">
-        <v>77</v>
       </c>
       <c r="L106" t="s">
         <v>32</v>
@@ -12365,7 +12365,7 @@
         <v>32</v>
       </c>
       <c r="X106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y106" t="s">
         <v>850</v>
@@ -12388,7 +12388,7 @@
         <v>853</v>
       </c>
       <c r="F107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G107" t="s">
         <v>164</v>
@@ -12403,7 +12403,7 @@
         <v>32</v>
       </c>
       <c r="K107" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L107" t="s">
         <v>32</v>
@@ -12442,7 +12442,7 @@
         <v>38</v>
       </c>
       <c r="X107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y107" t="s">
         <v>32</v>
@@ -12468,7 +12468,7 @@
         <v>859</v>
       </c>
       <c r="G108" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H108" t="s">
         <v>32</v>
@@ -12477,10 +12477,10 @@
         <v>32</v>
       </c>
       <c r="J108" t="s">
+        <v>75</v>
+      </c>
+      <c r="K108" t="s">
         <v>76</v>
-      </c>
-      <c r="K108" t="s">
-        <v>77</v>
       </c>
       <c r="L108" t="s">
         <v>32</v>
@@ -12519,7 +12519,7 @@
         <v>38</v>
       </c>
       <c r="X108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y108" t="s">
         <v>32</v>
@@ -12557,7 +12557,7 @@
         <v>825</v>
       </c>
       <c r="K109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L109" t="s">
         <v>32</v>
@@ -12596,7 +12596,7 @@
         <v>38</v>
       </c>
       <c r="X109" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y109" t="s">
         <v>32</v>
@@ -12619,7 +12619,7 @@
         <v>853</v>
       </c>
       <c r="F110" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G110" t="s">
         <v>164</v>
@@ -12631,10 +12631,10 @@
         <v>869</v>
       </c>
       <c r="J110" t="s">
+        <v>75</v>
+      </c>
+      <c r="K110" t="s">
         <v>76</v>
-      </c>
-      <c r="K110" t="s">
-        <v>77</v>
       </c>
       <c r="L110" t="s">
         <v>32</v>
@@ -12673,7 +12673,7 @@
         <v>38</v>
       </c>
       <c r="X110" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y110" t="s">
         <v>32</v>
@@ -12699,7 +12699,7 @@
         <v>874</v>
       </c>
       <c r="G111" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H111" t="s">
         <v>32</v>
@@ -12711,7 +12711,7 @@
         <v>48</v>
       </c>
       <c r="K111" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L111" t="s">
         <v>32</v>
@@ -12750,7 +12750,7 @@
         <v>32</v>
       </c>
       <c r="X111" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y111" t="s">
         <v>878</v>
@@ -12785,10 +12785,10 @@
         <v>883</v>
       </c>
       <c r="J112" t="s">
+        <v>75</v>
+      </c>
+      <c r="K112" t="s">
         <v>76</v>
-      </c>
-      <c r="K112" t="s">
-        <v>77</v>
       </c>
       <c r="L112" t="s">
         <v>32</v>
@@ -12827,7 +12827,7 @@
         <v>32</v>
       </c>
       <c r="X112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y112" t="s">
         <v>32</v>
@@ -12853,7 +12853,7 @@
         <v>888</v>
       </c>
       <c r="G113" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H113" t="s">
         <v>32</v>
@@ -12862,10 +12862,10 @@
         <v>32</v>
       </c>
       <c r="J113" t="s">
+        <v>75</v>
+      </c>
+      <c r="K113" t="s">
         <v>76</v>
-      </c>
-      <c r="K113" t="s">
-        <v>77</v>
       </c>
       <c r="L113" t="s">
         <v>32</v>
@@ -12904,7 +12904,7 @@
         <v>32</v>
       </c>
       <c r="X113" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y113" t="s">
         <v>32</v>
@@ -12930,7 +12930,7 @@
         <v>893</v>
       </c>
       <c r="G114" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H114" t="s">
         <v>32</v>
@@ -12939,10 +12939,10 @@
         <v>894</v>
       </c>
       <c r="J114" t="s">
+        <v>75</v>
+      </c>
+      <c r="K114" t="s">
         <v>76</v>
-      </c>
-      <c r="K114" t="s">
-        <v>77</v>
       </c>
       <c r="L114" t="s">
         <v>32</v>
@@ -12981,7 +12981,7 @@
         <v>32</v>
       </c>
       <c r="X114" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y114" t="s">
         <v>897</v>
@@ -13007,7 +13007,7 @@
         <v>494</v>
       </c>
       <c r="G115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H115" t="s">
         <v>32</v>
@@ -13016,10 +13016,10 @@
         <v>900</v>
       </c>
       <c r="J115" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L115" t="s">
         <v>32</v>
@@ -13084,7 +13084,7 @@
         <v>460</v>
       </c>
       <c r="G116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H116" t="s">
         <v>32</v>
@@ -13135,7 +13135,7 @@
         <v>38</v>
       </c>
       <c r="X116" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y116" t="s">
         <v>32</v>
@@ -13161,7 +13161,7 @@
         <v>460</v>
       </c>
       <c r="G117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H117" t="s">
         <v>32</v>
@@ -13212,7 +13212,7 @@
         <v>32</v>
       </c>
       <c r="X117" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y117" t="s">
         <v>32</v>
@@ -13238,7 +13238,7 @@
         <v>494</v>
       </c>
       <c r="G118" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H118" t="s">
         <v>32</v>
@@ -13247,10 +13247,10 @@
         <v>913</v>
       </c>
       <c r="J118" t="s">
+        <v>75</v>
+      </c>
+      <c r="K118" t="s">
         <v>76</v>
-      </c>
-      <c r="K118" t="s">
-        <v>77</v>
       </c>
       <c r="L118" t="s">
         <v>32</v>
@@ -13306,7 +13306,7 @@
         <v>27</v>
       </c>
       <c r="D119" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E119" t="s">
         <v>917</v>
@@ -13315,7 +13315,7 @@
         <v>918</v>
       </c>
       <c r="G119" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H119" t="s">
         <v>32</v>
@@ -13327,7 +13327,7 @@
         <v>48</v>
       </c>
       <c r="K119" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L119" t="s">
         <v>32</v>
@@ -13366,7 +13366,7 @@
         <v>38</v>
       </c>
       <c r="X119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y119" t="s">
         <v>32</v>
@@ -13392,7 +13392,7 @@
         <v>494</v>
       </c>
       <c r="G120" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H120" t="s">
         <v>32</v>
@@ -13404,7 +13404,7 @@
         <v>923</v>
       </c>
       <c r="K120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L120" t="s">
         <v>32</v>
@@ -13443,7 +13443,7 @@
         <v>32</v>
       </c>
       <c r="X120" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y120" t="s">
         <v>189</v>
@@ -13469,7 +13469,7 @@
         <v>494</v>
       </c>
       <c r="G121" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H121" t="s">
         <v>32</v>
@@ -13481,7 +13481,7 @@
         <v>929</v>
       </c>
       <c r="K121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L121" t="s">
         <v>32</v>
@@ -13520,7 +13520,7 @@
         <v>32</v>
       </c>
       <c r="X121" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y121" t="s">
         <v>189</v>
@@ -13558,7 +13558,7 @@
         <v>32</v>
       </c>
       <c r="K122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L122" t="s">
         <v>32</v>
@@ -13597,7 +13597,7 @@
         <v>32</v>
       </c>
       <c r="X122" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y122" t="s">
         <v>32</v>
@@ -13623,7 +13623,7 @@
         <v>942</v>
       </c>
       <c r="G123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H123" t="s">
         <v>32</v>
@@ -13635,7 +13635,7 @@
         <v>944</v>
       </c>
       <c r="K123" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L123" t="s">
         <v>32</v>
@@ -13674,7 +13674,7 @@
         <v>38</v>
       </c>
       <c r="X123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y123" t="s">
         <v>32</v>
@@ -13700,7 +13700,7 @@
         <v>460</v>
       </c>
       <c r="G124" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H124" t="s">
         <v>32</v>
@@ -13709,10 +13709,10 @@
         <v>948</v>
       </c>
       <c r="J124" t="s">
+        <v>75</v>
+      </c>
+      <c r="K124" t="s">
         <v>76</v>
-      </c>
-      <c r="K124" t="s">
-        <v>77</v>
       </c>
       <c r="L124" t="s">
         <v>32</v>
@@ -13751,7 +13751,7 @@
         <v>38</v>
       </c>
       <c r="X124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y124" t="s">
         <v>32</v>
@@ -13786,10 +13786,10 @@
         <v>955</v>
       </c>
       <c r="J125" t="s">
+        <v>75</v>
+      </c>
+      <c r="K125" t="s">
         <v>76</v>
-      </c>
-      <c r="K125" t="s">
-        <v>77</v>
       </c>
       <c r="L125" t="s">
         <v>32</v>
@@ -13828,7 +13828,7 @@
         <v>32</v>
       </c>
       <c r="X125" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y125" t="s">
         <v>32</v>
@@ -13854,7 +13854,7 @@
         <v>545</v>
       </c>
       <c r="G126" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H126" t="s">
         <v>32</v>
@@ -13863,7 +13863,7 @@
         <v>32</v>
       </c>
       <c r="J126" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K126" t="s">
         <v>476</v>
@@ -13905,7 +13905,7 @@
         <v>32</v>
       </c>
       <c r="X126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y126" t="s">
         <v>32</v>
@@ -13940,7 +13940,7 @@
         <v>964</v>
       </c>
       <c r="J127" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K127" t="s">
         <v>563</v>
@@ -13982,7 +13982,7 @@
         <v>38</v>
       </c>
       <c r="X127" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y127" t="s">
         <v>32</v>
@@ -14017,10 +14017,10 @@
         <v>32</v>
       </c>
       <c r="J128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K128" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L128" t="s">
         <v>32</v>
@@ -14059,7 +14059,7 @@
         <v>32</v>
       </c>
       <c r="X128" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y128" t="s">
         <v>32</v>
@@ -14085,7 +14085,7 @@
         <v>494</v>
       </c>
       <c r="G129" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H129" t="s">
         <v>32</v>
@@ -14094,7 +14094,7 @@
         <v>976</v>
       </c>
       <c r="J129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K129" t="s">
         <v>977</v>
@@ -14213,7 +14213,7 @@
         <v>32</v>
       </c>
       <c r="X130" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y130" t="s">
         <v>988</v>
@@ -14233,13 +14233,13 @@
         <v>990</v>
       </c>
       <c r="E131" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F131" t="s">
         <v>991</v>
       </c>
       <c r="G131" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H131" t="s">
         <v>32</v>
@@ -14248,7 +14248,7 @@
         <v>32</v>
       </c>
       <c r="J131" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K131" t="s">
         <v>992</v>
@@ -14290,7 +14290,7 @@
         <v>32</v>
       </c>
       <c r="X131" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y131" t="s">
         <v>32</v>
@@ -14325,10 +14325,10 @@
         <v>996</v>
       </c>
       <c r="J132" t="s">
+        <v>75</v>
+      </c>
+      <c r="K132" t="s">
         <v>76</v>
-      </c>
-      <c r="K132" t="s">
-        <v>77</v>
       </c>
       <c r="L132" t="s">
         <v>32</v>
@@ -14402,10 +14402,10 @@
         <v>1003</v>
       </c>
       <c r="J133" t="s">
+        <v>75</v>
+      </c>
+      <c r="K133" t="s">
         <v>76</v>
-      </c>
-      <c r="K133" t="s">
-        <v>77</v>
       </c>
       <c r="L133" t="s">
         <v>32</v>
@@ -14444,7 +14444,7 @@
         <v>32</v>
       </c>
       <c r="X133" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y133" t="s">
         <v>32</v>
@@ -14470,7 +14470,7 @@
         <v>1009</v>
       </c>
       <c r="G134" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H134" t="s">
         <v>32</v>
@@ -14479,7 +14479,7 @@
         <v>32</v>
       </c>
       <c r="J134" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K134" t="s">
         <v>1010</v>
@@ -14521,7 +14521,7 @@
         <v>32</v>
       </c>
       <c r="X134" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y134" t="s">
         <v>32</v>
@@ -14544,10 +14544,10 @@
         <v>853</v>
       </c>
       <c r="F135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G135" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H135" t="s">
         <v>32</v>
@@ -14559,7 +14559,7 @@
         <v>32</v>
       </c>
       <c r="K135" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L135" t="s">
         <v>32</v>
@@ -14598,7 +14598,7 @@
         <v>32</v>
       </c>
       <c r="X135" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y135" t="s">
         <v>1016</v>
@@ -14624,7 +14624,7 @@
         <v>1020</v>
       </c>
       <c r="G136" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H136" t="s">
         <v>32</v>
@@ -14633,7 +14633,7 @@
         <v>1021</v>
       </c>
       <c r="J136" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K136" t="s">
         <v>1022</v>
@@ -14752,7 +14752,7 @@
         <v>32</v>
       </c>
       <c r="X137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y137" t="s">
         <v>32</v>
@@ -14787,10 +14787,10 @@
         <v>1039</v>
       </c>
       <c r="J138" t="s">
+        <v>75</v>
+      </c>
+      <c r="K138" t="s">
         <v>76</v>
-      </c>
-      <c r="K138" t="s">
-        <v>77</v>
       </c>
       <c r="L138" t="s">
         <v>32</v>
@@ -14829,7 +14829,7 @@
         <v>38</v>
       </c>
       <c r="X138" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y138" t="s">
         <v>32</v>
@@ -14864,10 +14864,10 @@
         <v>32</v>
       </c>
       <c r="J139" t="s">
+        <v>75</v>
+      </c>
+      <c r="K139" t="s">
         <v>76</v>
-      </c>
-      <c r="K139" t="s">
-        <v>77</v>
       </c>
       <c r="L139" t="s">
         <v>32</v>
@@ -14906,7 +14906,7 @@
         <v>38</v>
       </c>
       <c r="X139" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y139" t="s">
         <v>32</v>
@@ -14944,7 +14944,7 @@
         <v>32</v>
       </c>
       <c r="K140" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L140" t="s">
         <v>32</v>
@@ -14983,7 +14983,7 @@
         <v>38</v>
       </c>
       <c r="X140" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y140" t="s">
         <v>32</v>
@@ -15021,7 +15021,7 @@
         <v>32</v>
       </c>
       <c r="K141" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L141" t="s">
         <v>32</v>
@@ -15060,7 +15060,7 @@
         <v>32</v>
       </c>
       <c r="X141" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y141" t="s">
         <v>32</v>
@@ -15086,7 +15086,7 @@
         <v>460</v>
       </c>
       <c r="G142" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H142" t="s">
         <v>32</v>
@@ -15098,7 +15098,7 @@
         <v>399</v>
       </c>
       <c r="K142" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L142" t="s">
         <v>32</v>
@@ -15137,7 +15137,7 @@
         <v>32</v>
       </c>
       <c r="X142" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y142" t="s">
         <v>32</v>
@@ -15175,7 +15175,7 @@
         <v>32</v>
       </c>
       <c r="K143" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L143" t="s">
         <v>32</v>
@@ -15214,7 +15214,7 @@
         <v>38</v>
       </c>
       <c r="X143" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y143" t="s">
         <v>32</v>
@@ -15240,7 +15240,7 @@
         <v>545</v>
       </c>
       <c r="G144" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H144" t="s">
         <v>32</v>
@@ -15249,7 +15249,7 @@
         <v>32</v>
       </c>
       <c r="J144" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K144" t="s">
         <v>476</v>
@@ -15291,7 +15291,7 @@
         <v>32</v>
       </c>
       <c r="X144" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y144" t="s">
         <v>32</v>
@@ -15314,10 +15314,10 @@
         <v>1070</v>
       </c>
       <c r="F145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H145" t="s">
         <v>32</v>
@@ -15326,10 +15326,10 @@
         <v>1071</v>
       </c>
       <c r="J145" t="s">
+        <v>75</v>
+      </c>
+      <c r="K145" t="s">
         <v>76</v>
-      </c>
-      <c r="K145" t="s">
-        <v>77</v>
       </c>
       <c r="L145" t="s">
         <v>32</v>
@@ -15368,7 +15368,7 @@
         <v>32</v>
       </c>
       <c r="X145" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y145" t="s">
         <v>1074</v>
@@ -15394,7 +15394,7 @@
         <v>1078</v>
       </c>
       <c r="G146" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H146" t="s">
         <v>32</v>
@@ -15406,7 +15406,7 @@
         <v>1080</v>
       </c>
       <c r="K146" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L146" t="s">
         <v>32</v>
@@ -15445,7 +15445,7 @@
         <v>32</v>
       </c>
       <c r="X146" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y146" t="s">
         <v>32</v>
@@ -15471,7 +15471,7 @@
         <v>466</v>
       </c>
       <c r="G147" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H147" t="s">
         <v>32</v>
@@ -15480,10 +15480,10 @@
         <v>1087</v>
       </c>
       <c r="J147" t="s">
+        <v>75</v>
+      </c>
+      <c r="K147" t="s">
         <v>76</v>
-      </c>
-      <c r="K147" t="s">
-        <v>77</v>
       </c>
       <c r="L147" t="s">
         <v>32</v>
@@ -15522,7 +15522,7 @@
         <v>32</v>
       </c>
       <c r="X147" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y147" t="s">
         <v>32</v>
@@ -15560,7 +15560,7 @@
         <v>1093</v>
       </c>
       <c r="K148" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L148" t="s">
         <v>32</v>
@@ -15637,7 +15637,7 @@
         <v>837</v>
       </c>
       <c r="K149" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L149" t="s">
         <v>32</v>
@@ -15676,7 +15676,7 @@
         <v>32</v>
       </c>
       <c r="X149" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y149" t="s">
         <v>32</v>
@@ -15714,7 +15714,7 @@
         <v>1107</v>
       </c>
       <c r="K150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L150" t="s">
         <v>32</v>
@@ -15779,7 +15779,7 @@
         <v>1115</v>
       </c>
       <c r="G151" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H151" t="s">
         <v>32</v>
@@ -15791,7 +15791,7 @@
         <v>1116</v>
       </c>
       <c r="K151" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L151" t="s">
         <v>32</v>
@@ -15856,7 +15856,7 @@
         <v>1123</v>
       </c>
       <c r="G152" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H152" t="s">
         <v>32</v>
@@ -15865,7 +15865,7 @@
         <v>32</v>
       </c>
       <c r="J152" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K152" t="s">
         <v>1124</v>
@@ -15907,7 +15907,7 @@
         <v>32</v>
       </c>
       <c r="X152" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y152" t="s">
         <v>32</v>
@@ -15933,7 +15933,7 @@
         <v>1129</v>
       </c>
       <c r="G153" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H153" t="s">
         <v>32</v>
@@ -15984,7 +15984,7 @@
         <v>32</v>
       </c>
       <c r="X153" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y153" t="s">
         <v>32</v>
@@ -16022,7 +16022,7 @@
         <v>32</v>
       </c>
       <c r="K154" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L154" t="s">
         <v>32</v>
@@ -16061,7 +16061,7 @@
         <v>38</v>
       </c>
       <c r="X154" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y154" t="s">
         <v>32</v>
@@ -16087,7 +16087,7 @@
         <v>494</v>
       </c>
       <c r="G155" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H155" t="s">
         <v>32</v>
@@ -16099,7 +16099,7 @@
         <v>1141</v>
       </c>
       <c r="K155" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L155" t="s">
         <v>32</v>
@@ -16138,7 +16138,7 @@
         <v>38</v>
       </c>
       <c r="X155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y155" t="s">
         <v>32</v>
@@ -16164,7 +16164,7 @@
         <v>1147</v>
       </c>
       <c r="G156" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H156" t="s">
         <v>32</v>
@@ -16173,10 +16173,10 @@
         <v>1148</v>
       </c>
       <c r="J156" t="s">
+        <v>75</v>
+      </c>
+      <c r="K156" t="s">
         <v>76</v>
-      </c>
-      <c r="K156" t="s">
-        <v>77</v>
       </c>
       <c r="L156" t="s">
         <v>32</v>
@@ -16215,7 +16215,7 @@
         <v>38</v>
       </c>
       <c r="X156" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y156" t="s">
         <v>32</v>
@@ -16241,7 +16241,7 @@
         <v>494</v>
       </c>
       <c r="G157" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H157" t="s">
         <v>32</v>
@@ -16253,7 +16253,7 @@
         <v>282</v>
       </c>
       <c r="K157" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L157" t="s">
         <v>32</v>
@@ -16292,7 +16292,7 @@
         <v>32</v>
       </c>
       <c r="X157" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y157" t="s">
         <v>32</v>
@@ -16309,13 +16309,13 @@
         <v>27</v>
       </c>
       <c r="D158" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E158" t="s">
         <v>1155</v>
       </c>
       <c r="F158" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G158" t="s">
         <v>164</v>
@@ -16327,7 +16327,7 @@
         <v>1156</v>
       </c>
       <c r="J158" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K158" t="s">
         <v>369</v>
@@ -16369,7 +16369,7 @@
         <v>32</v>
       </c>
       <c r="X158" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y158" t="s">
         <v>1159</v>
@@ -16395,7 +16395,7 @@
         <v>494</v>
       </c>
       <c r="G159" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H159" t="s">
         <v>32</v>
@@ -16404,10 +16404,10 @@
         <v>1163</v>
       </c>
       <c r="J159" t="s">
+        <v>75</v>
+      </c>
+      <c r="K159" t="s">
         <v>76</v>
-      </c>
-      <c r="K159" t="s">
-        <v>77</v>
       </c>
       <c r="L159" t="s">
         <v>32</v>
@@ -16446,7 +16446,7 @@
         <v>38</v>
       </c>
       <c r="X159" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y159" t="s">
         <v>32</v>
@@ -16484,7 +16484,7 @@
         <v>32</v>
       </c>
       <c r="K160" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L160" t="s">
         <v>32</v>
@@ -16523,7 +16523,7 @@
         <v>32</v>
       </c>
       <c r="X160" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y160" t="s">
         <v>32</v>
@@ -16549,7 +16549,7 @@
         <v>672</v>
       </c>
       <c r="G161" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H161" t="s">
         <v>32</v>
@@ -16626,7 +16626,7 @@
         <v>545</v>
       </c>
       <c r="G162" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H162" t="s">
         <v>32</v>
@@ -16638,7 +16638,7 @@
         <v>1183</v>
       </c>
       <c r="K162" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L162" t="s">
         <v>32</v>
@@ -16677,7 +16677,7 @@
         <v>38</v>
       </c>
       <c r="X162" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y162" t="s">
         <v>32</v>
@@ -16703,7 +16703,7 @@
         <v>545</v>
       </c>
       <c r="G163" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H163" t="s">
         <v>32</v>
@@ -16715,7 +16715,7 @@
         <v>1183</v>
       </c>
       <c r="K163" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L163" t="s">
         <v>32</v>
@@ -16754,7 +16754,7 @@
         <v>38</v>
       </c>
       <c r="X163" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y163" t="s">
         <v>32</v>
@@ -16792,7 +16792,7 @@
         <v>32</v>
       </c>
       <c r="K164" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L164" t="s">
         <v>632</v>
@@ -16831,7 +16831,7 @@
         <v>38</v>
       </c>
       <c r="X164" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y164" t="s">
         <v>32</v>
@@ -16869,7 +16869,7 @@
         <v>32</v>
       </c>
       <c r="K165" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L165" t="s">
         <v>32</v>
@@ -16908,7 +16908,7 @@
         <v>38</v>
       </c>
       <c r="X165" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y165" t="s">
         <v>32</v>
@@ -16934,7 +16934,7 @@
         <v>545</v>
       </c>
       <c r="G166" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H166" t="s">
         <v>32</v>
@@ -16946,7 +16946,7 @@
         <v>1200</v>
       </c>
       <c r="K166" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L166" t="s">
         <v>1201</v>
@@ -16985,7 +16985,7 @@
         <v>32</v>
       </c>
       <c r="X166" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y166" t="s">
         <v>32</v>
@@ -17023,7 +17023,7 @@
         <v>32</v>
       </c>
       <c r="K167" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L167" t="s">
         <v>32</v>
@@ -17062,7 +17062,7 @@
         <v>32</v>
       </c>
       <c r="X167" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y167" t="s">
         <v>32</v>
@@ -17100,7 +17100,7 @@
         <v>1211</v>
       </c>
       <c r="K168" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L168" t="s">
         <v>32</v>
@@ -17139,15 +17139,15 @@
         <v>32</v>
       </c>
       <c r="X168" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y168" t="s">
         <v>1213</v>
-      </c>
-      <c r="Y168" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="169" spans="1:25">
       <c r="A169" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B169" t="s">
         <v>26</v>
@@ -17156,7 +17156,7 @@
         <v>27</v>
       </c>
       <c r="D169" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E169" t="s">
         <v>459</v>
@@ -17165,40 +17165,40 @@
         <v>460</v>
       </c>
       <c r="G169" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H169" t="s">
         <v>32</v>
       </c>
       <c r="I169" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J169" t="s">
         <v>1217</v>
       </c>
-      <c r="J169" t="s">
+      <c r="K169" t="s">
+        <v>76</v>
+      </c>
+      <c r="L169" t="s">
+        <v>32</v>
+      </c>
+      <c r="M169" t="s">
+        <v>32</v>
+      </c>
+      <c r="N169" t="s">
+        <v>32</v>
+      </c>
+      <c r="O169" t="s">
+        <v>32</v>
+      </c>
+      <c r="P169" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>32</v>
+      </c>
+      <c r="R169" t="s">
         <v>1218</v>
-      </c>
-      <c r="K169" t="s">
-        <v>77</v>
-      </c>
-      <c r="L169" t="s">
-        <v>32</v>
-      </c>
-      <c r="M169" t="s">
-        <v>32</v>
-      </c>
-      <c r="N169" t="s">
-        <v>32</v>
-      </c>
-      <c r="O169" t="s">
-        <v>32</v>
-      </c>
-      <c r="P169" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>32</v>
-      </c>
-      <c r="R169" t="s">
-        <v>1219</v>
       </c>
       <c r="S169" t="s">
         <v>32</v>
@@ -17216,10 +17216,10 @@
         <v>32</v>
       </c>
       <c r="X169" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="Y169" t="s">
-        <v>110</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="170" spans="1:25">
@@ -17254,7 +17254,7 @@
         <v>155</v>
       </c>
       <c r="K170" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L170" t="s">
         <v>32</v>
@@ -17293,7 +17293,7 @@
         <v>32</v>
       </c>
       <c r="X170" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y170" t="s">
         <v>1227</v>
@@ -17316,7 +17316,7 @@
         <v>853</v>
       </c>
       <c r="F171" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G171" t="s">
         <v>164</v>
@@ -17328,10 +17328,10 @@
         <v>1230</v>
       </c>
       <c r="J171" t="s">
+        <v>75</v>
+      </c>
+      <c r="K171" t="s">
         <v>76</v>
-      </c>
-      <c r="K171" t="s">
-        <v>77</v>
       </c>
       <c r="L171" t="s">
         <v>32</v>
@@ -17370,7 +17370,7 @@
         <v>32</v>
       </c>
       <c r="X171" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y171" t="s">
         <v>1232</v>
@@ -17393,7 +17393,7 @@
         <v>853</v>
       </c>
       <c r="F172" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G172" t="s">
         <v>164</v>
@@ -17405,7 +17405,7 @@
         <v>1235</v>
       </c>
       <c r="J172" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K172" t="s">
         <v>563</v>
@@ -17447,7 +17447,7 @@
         <v>32</v>
       </c>
       <c r="X172" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y172" t="s">
         <v>189</v>
@@ -17473,7 +17473,7 @@
         <v>1239</v>
       </c>
       <c r="G173" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H173" t="s">
         <v>32</v>
@@ -17482,10 +17482,10 @@
         <v>1240</v>
       </c>
       <c r="J173" t="s">
+        <v>75</v>
+      </c>
+      <c r="K173" t="s">
         <v>76</v>
-      </c>
-      <c r="K173" t="s">
-        <v>77</v>
       </c>
       <c r="L173" t="s">
         <v>32</v>
@@ -17559,10 +17559,10 @@
         <v>1246</v>
       </c>
       <c r="J174" t="s">
+        <v>75</v>
+      </c>
+      <c r="K174" t="s">
         <v>76</v>
-      </c>
-      <c r="K174" t="s">
-        <v>77</v>
       </c>
       <c r="L174" t="s">
         <v>32</v>
@@ -17601,7 +17601,7 @@
         <v>32</v>
       </c>
       <c r="X174" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y174" t="s">
         <v>32</v>
@@ -17627,7 +17627,7 @@
         <v>648</v>
       </c>
       <c r="G175" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H175" t="s">
         <v>32</v>
@@ -17636,10 +17636,10 @@
         <v>1251</v>
       </c>
       <c r="J175" t="s">
+        <v>75</v>
+      </c>
+      <c r="K175" t="s">
         <v>76</v>
-      </c>
-      <c r="K175" t="s">
-        <v>77</v>
       </c>
       <c r="L175" t="s">
         <v>32</v>
@@ -17701,7 +17701,7 @@
         <v>853</v>
       </c>
       <c r="F176" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G176" t="s">
         <v>164</v>
@@ -17713,7 +17713,7 @@
         <v>1256</v>
       </c>
       <c r="J176" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K176" t="s">
         <v>563</v>
@@ -17755,7 +17755,7 @@
         <v>32</v>
       </c>
       <c r="X176" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="Y176" t="s">
         <v>1257</v>
@@ -17793,7 +17793,7 @@
         <v>32</v>
       </c>
       <c r="K177" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L177" t="s">
         <v>32</v>
@@ -17832,7 +17832,7 @@
         <v>32</v>
       </c>
       <c r="X177" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y177" t="s">
         <v>32</v>
@@ -17870,7 +17870,7 @@
         <v>32</v>
       </c>
       <c r="K178" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L178" t="s">
         <v>32</v>
@@ -17909,7 +17909,7 @@
         <v>32</v>
       </c>
       <c r="X178" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y178" t="s">
         <v>32</v>
@@ -17947,7 +17947,7 @@
         <v>32</v>
       </c>
       <c r="K179" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L179" t="s">
         <v>32</v>
@@ -17986,7 +17986,7 @@
         <v>38</v>
       </c>
       <c r="X179" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y179" t="s">
         <v>32</v>
@@ -18021,10 +18021,10 @@
         <v>1277</v>
       </c>
       <c r="J180" t="s">
+        <v>75</v>
+      </c>
+      <c r="K180" t="s">
         <v>76</v>
-      </c>
-      <c r="K180" t="s">
-        <v>77</v>
       </c>
       <c r="L180" t="s">
         <v>32</v>
@@ -18063,7 +18063,7 @@
         <v>32</v>
       </c>
       <c r="X180" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y180" t="s">
         <v>1279</v>
@@ -18098,10 +18098,10 @@
         <v>1282</v>
       </c>
       <c r="J181" t="s">
+        <v>75</v>
+      </c>
+      <c r="K181" t="s">
         <v>76</v>
-      </c>
-      <c r="K181" t="s">
-        <v>77</v>
       </c>
       <c r="L181" t="s">
         <v>32</v>
@@ -18140,7 +18140,7 @@
         <v>32</v>
       </c>
       <c r="X181" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y181" t="s">
         <v>1279</v>
@@ -18163,7 +18163,7 @@
         <v>853</v>
       </c>
       <c r="F182" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G182" t="s">
         <v>164</v>
@@ -18175,10 +18175,10 @@
         <v>32</v>
       </c>
       <c r="J182" t="s">
+        <v>75</v>
+      </c>
+      <c r="K182" t="s">
         <v>76</v>
-      </c>
-      <c r="K182" t="s">
-        <v>77</v>
       </c>
       <c r="L182" t="s">
         <v>32</v>
@@ -18217,7 +18217,7 @@
         <v>32</v>
       </c>
       <c r="X182" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y182" t="s">
         <v>189</v>
